--- a/user_input_data.xlsx
+++ b/user_input_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,127 +463,89 @@
       <c r="A2" s="2" t="n">
         <v>45259.37540473379</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>176</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>45259.37547012731</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>176</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45259.3755278588</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>94</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45259.37558082176</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>116</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45259.37585546296</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>94</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45259.37602643519</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PAR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>94</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45259.3762133729</v>
-      </c>
-      <c r="B8" t="inlineStr">
+        <v>45259.37621336806</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45260.3796625</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>PAR</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>76</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>縦ぶりにする。フォローの時を意識する。上にあげるように。姿勢がやや立っている。手をやや鎮める。</t>
-        </is>
-      </c>
+      <c r="C9" t="n">
+        <v>110</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>日本時間に調整した</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.80445047545</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>110</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
